--- a/allTest_PCForgJune.xlsx
+++ b/allTest_PCForgJune.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="115">
   <si>
     <t>tableName</t>
   </si>
@@ -107,39 +107,39 @@
     <t>m-2022-05</t>
   </si>
   <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_CARELINEPI_FE</t>
+  </si>
+  <si>
     <t>m-2022-03</t>
   </si>
   <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>INT_CARELINEPI_FE</t>
-  </si>
-  <si>
     <t>rowsEffected</t>
   </si>
   <si>
@@ -239,130 +239,133 @@
     <t>cclf_expu_3_snf</t>
   </si>
   <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>pcf_align_attribd</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>q-2022-2</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>q-2021-4</t>
+  </si>
+  <si>
+    <t>MEASURE_ID</t>
+  </si>
+  <si>
+    <t>RWCNT_x</t>
+  </si>
+  <si>
+    <t>RWCNT_y</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acquired_hypothyroidism</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_acute_myocardial_infarction</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_anxiety_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_asthma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_atrial_fibrillation</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_bipolar_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_cataract</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_kidney_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_colorectal_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_depression</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_diabetes</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_endometrial_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_female_male_breast_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_glaucoma</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_heart_failure</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hip_pelvic_fracture</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hyperlipidemia</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_hypertension</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_ischemic_heart_disease</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_lung_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_obesity</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_osteoporosis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_personality_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_prostate_cancer</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
+  </si>
+  <si>
+    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
+  </si>
+  <si>
     <t>cclf_ng_align</t>
-  </si>
-  <si>
-    <t>nh_network_model_0_hdr</t>
-  </si>
-  <si>
-    <t>pcf_align_attribd</t>
-  </si>
-  <si>
-    <t>2022-05</t>
-  </si>
-  <si>
-    <t>q-2021-4</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>MEASURE_ID</t>
-  </si>
-  <si>
-    <t>RWCNT_x</t>
-  </si>
-  <si>
-    <t>RWCNT_y</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acquired_hypothyroidism</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_acute_myocardial_infarction</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_alzheimers_disease_and_related_disorders_or_senile_dementia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_anxiety_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_asthma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_atrial_fibrillation</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_benign_prostatic_hyperplasia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_bipolar_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_cataract</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_kidney_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_chronic_obstructive_pulmonary_disease_and_bronchiectasis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_colorectal_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_depression</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_diabetes</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_endometrial_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_female_male_breast_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_glaucoma</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_heart_failure</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hip_pelvic_fracture</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hyperlipidemia</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_hypertension</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_ischemic_heart_disease</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_lung_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_obesity</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_osteoporosis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_personality_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_post_traumatic_stress_disorder</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_prostate_cancer</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_rheumatoid_arthritis_osteoarthritis</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_schizophrenia_and_other_psychotic_disorders</t>
-  </si>
-  <si>
-    <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -772,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -789,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -806,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -823,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -840,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -857,7 +860,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -885,13 +888,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>81406</v>
+        <v>83250</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -902,7 +905,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -919,7 +922,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -936,7 +939,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -953,13 +956,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1259055</v>
+        <v>1396779</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -970,13 +973,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>159352</v>
+        <v>166500</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -987,13 +990,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1769577</v>
+        <v>1806072</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1004,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>125086</v>
+        <v>121011</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1021,7 +1024,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1038,13 +1041,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>59146</v>
+        <v>65083</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1055,13 +1058,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1769577</v>
+        <v>1806072</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1072,13 +1075,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
-        <v>9468</v>
+        <v>14631</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1089,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1116,31 +1119,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1151,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -1160,13 +1163,13 @@
         <v>3143</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>44665</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>3006</v>
@@ -1183,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -1192,13 +1195,13 @@
         <v>5815</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>44665</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>5560</v>
@@ -1215,7 +1218,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1224,13 +1227,13 @@
         <v>17429</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>44665</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>16619</v>
@@ -1247,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1256,13 +1259,13 @@
         <v>1396</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>44665</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>1335</v>
@@ -1279,7 +1282,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -1288,13 +1291,13 @@
         <v>996435</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>44665</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>930946</v>
@@ -1311,7 +1314,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1320,13 +1323,13 @@
         <v>329882</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>44665</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>308894</v>
@@ -1343,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1352,13 +1355,13 @@
         <v>15282</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>44665</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>14140</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1395,28 +1398,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>81406</v>
+        <v>83250</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>44665</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>79676</v>
       </c>
       <c r="J10">
-        <v>1730</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1427,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1436,13 +1439,13 @@
         <v>73079</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>44665</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>67283</v>
@@ -1459,7 +1462,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1468,13 +1471,13 @@
         <v>612835</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>44665</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>578993</v>
@@ -1491,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1500,13 +1503,13 @@
         <v>50316</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>44665</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>50316</v>
@@ -1523,28 +1526,28 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1259055</v>
+        <v>1396779</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
         <v>44665</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>1259055</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>137724</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1555,28 +1558,28 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>159352</v>
+        <v>166500</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2">
         <v>44665</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>159352</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1587,28 +1590,28 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1769577</v>
+        <v>1806072</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2">
         <v>44665</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>1730647</v>
       </c>
       <c r="J16">
-        <v>38930</v>
+        <v>75425</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1619,28 +1622,28 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>125086</v>
+        <v>121011</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
         <v>44665</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>119442</v>
       </c>
       <c r="J17">
-        <v>5644</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1651,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1660,13 +1663,13 @@
         <v>84914</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>44665</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>81462</v>
@@ -1683,28 +1686,28 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>59146</v>
+        <v>65083</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>44665</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>59146</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1715,28 +1718,28 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1769577</v>
+        <v>1806072</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>44665</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>1730647</v>
       </c>
       <c r="J20">
-        <v>38930</v>
+        <v>75425</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1747,28 +1750,28 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
-        <v>9468</v>
+        <v>14631</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>44665</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>9468</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1779,7 +1782,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44729</v>
+        <v>44735</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1788,13 +1791,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2">
         <v>44665</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2090,7 +2093,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2124,7 +2127,7 @@
         <v>44728</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>385</v>
@@ -2141,7 +2144,7 @@
         <v>44728</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>76158</v>
@@ -2158,7 +2161,7 @@
         <v>44728</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>551690</v>
@@ -2175,7 +2178,7 @@
         <v>44728</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4048</v>
@@ -2192,7 +2195,7 @@
         <v>44728</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>482859</v>
@@ -2209,7 +2212,7 @@
         <v>44728</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>338193</v>
@@ -2226,7 +2229,7 @@
         <v>44728</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>39540</v>
@@ -2243,7 +2246,7 @@
         <v>44728</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>349122</v>
@@ -2260,7 +2263,7 @@
         <v>44728</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>43324</v>
@@ -2365,7 +2368,7 @@
         <v>44728</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>121674</v>
@@ -2393,7 +2396,7 @@
         <v>44728</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>335635</v>
@@ -2472,25 +2475,14 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
+      <c r="C28" s="2">
+        <v>44734</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44517</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29">
-        <v>3156</v>
+        <v>4877</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2511,31 +2503,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2549,19 +2541,19 @@
         <v>44728</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>44665</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>341</v>
@@ -2581,19 +2573,19 @@
         <v>44728</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>76158</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>44665</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>71594</v>
@@ -2613,19 +2605,19 @@
         <v>44728</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>551690</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>44665</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>512075</v>
@@ -2645,19 +2637,19 @@
         <v>44728</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4048</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>44665</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>3703</v>
@@ -2677,19 +2669,19 @@
         <v>44728</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>482859</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>44665</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <v>450096</v>
@@ -2709,19 +2701,19 @@
         <v>44728</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>338193</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
         <v>44665</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>315527</v>
@@ -2741,19 +2733,19 @@
         <v>44728</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>39540</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>44665</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8">
         <v>36901</v>
@@ -2773,19 +2765,19 @@
         <v>44728</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>349122</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>44665</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9">
         <v>328213</v>
@@ -2805,19 +2797,19 @@
         <v>44728</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>43324</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>44665</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10">
         <v>37036</v>
@@ -2837,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2857,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2877,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2917,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2937,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2957,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2977,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2997,19 +2989,19 @@
         <v>44728</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>121674</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>44665</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19">
         <v>116296</v>
@@ -3029,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3049,19 +3041,19 @@
         <v>44728</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>335635</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2">
         <v>44665</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <v>312969</v>
@@ -3081,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3101,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3121,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3141,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3161,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3181,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3197,49 +3189,29 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
+      <c r="C28" s="2">
+        <v>44734</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
       <c r="E28">
-        <v>0</v>
+        <v>4877</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44517</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3156</v>
       </c>
       <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44517</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29">
-        <v>3156</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="2">
-        <v>44517</v>
-      </c>
-      <c r="H29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I29">
-        <v>3156</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+        <v>1721</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3238,7 @@
         <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4035,7 +4007,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4046,7 +4018,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4057,7 +4029,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>

--- a/allTest_PCForgJune.xlsx
+++ b/allTest_PCForgJune.xlsx
@@ -10,18 +10,17 @@
     <sheet name="insCountMax prod_carelinepi" sheetId="1" r:id="rId1"/>
     <sheet name="insCountMaxC prod_carelinepi" sheetId="2" r:id="rId2"/>
     <sheet name="dupInsCheck prod_carelinepi" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth prod_carelinepi" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax prod_carelinepi" sheetId="5" r:id="rId5"/>
-    <sheet name="odsCountMaxC prod_carelinepi" sheetId="6" r:id="rId6"/>
-    <sheet name="ccsCompare prod_carelinepi" sheetId="7" r:id="rId7"/>
-    <sheet name="dupODSchk prod_carelinepi" sheetId="8" r:id="rId8"/>
+    <sheet name="odsCountMax prod_carelinepi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMaxC prod_carelinepi" sheetId="5" r:id="rId5"/>
+    <sheet name="ccsCompare prod_carelinepi" sheetId="6" r:id="rId6"/>
+    <sheet name="dupODSchk prod_carelinepi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="107">
   <si>
     <t>tableName</t>
   </si>
@@ -137,33 +136,12 @@
     <t>INT_CARELINEPI_FE</t>
   </si>
   <si>
-    <t>m-2022-03</t>
-  </si>
-  <si>
     <t>rowsEffected</t>
   </si>
   <si>
     <t>pkRowCount</t>
   </si>
   <si>
-    <t>ATTRIBUTION_REASON_CD</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_SOURCE_CD</t>
-  </si>
-  <si>
-    <t>FK_ACO_ID</t>
-  </si>
-  <si>
-    <t>FK_PATIENT_ID</t>
-  </si>
-  <si>
-    <t>MONTH_CD</t>
-  </si>
-  <si>
-    <t>DUPMOCNT</t>
-  </si>
-  <si>
     <t>cclf_0_summ_stat</t>
   </si>
   <si>
@@ -239,24 +217,24 @@
     <t>cclf_expu_3_snf</t>
   </si>
   <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
     <t>nh_network_model_0_hdr</t>
   </si>
   <si>
     <t>pcf_align_attribd</t>
   </si>
   <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>q-2022-2</t>
+  </si>
+  <si>
     <t>2022-05</t>
   </si>
   <si>
-    <t>q-2022-2</t>
-  </si>
-  <si>
-    <t>2022-03</t>
-  </si>
-  <si>
-    <t>q-2021-4</t>
-  </si>
-  <si>
     <t>MEASURE_ID</t>
   </si>
   <si>
@@ -363,9 +341,6 @@
   </si>
   <si>
     <t>emr_chronic_condition_stroke_transient_ischemic_attack</t>
-  </si>
-  <si>
-    <t>cclf_ng_align</t>
   </si>
 </sst>
 </file>
@@ -1166,16 +1141,16 @@
         <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I2">
-        <v>3006</v>
+        <v>3143</v>
       </c>
       <c r="J2">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1198,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>5560</v>
+        <v>5815</v>
       </c>
       <c r="J3">
-        <v>255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1230,16 +1205,16 @@
         <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>16619</v>
+        <v>17429</v>
       </c>
       <c r="J4">
-        <v>810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1262,16 +1237,16 @@
         <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>1335</v>
+        <v>1396</v>
       </c>
       <c r="J5">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1294,16 +1269,16 @@
         <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I6">
-        <v>930946</v>
+        <v>996435</v>
       </c>
       <c r="J6">
-        <v>65489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1326,16 +1301,16 @@
         <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I7">
-        <v>308894</v>
+        <v>329882</v>
       </c>
       <c r="J7">
-        <v>20988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1358,16 +1333,16 @@
         <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I8">
-        <v>14140</v>
+        <v>15282</v>
       </c>
       <c r="J8">
-        <v>1142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1410,16 +1385,16 @@
         <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I10">
-        <v>79676</v>
+        <v>83250</v>
       </c>
       <c r="J10">
-        <v>3574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1442,16 +1417,16 @@
         <v>37</v>
       </c>
       <c r="G11" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>67283</v>
+        <v>73079</v>
       </c>
       <c r="J11">
-        <v>5796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1474,16 +1449,16 @@
         <v>37</v>
       </c>
       <c r="G12" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I12">
-        <v>578993</v>
+        <v>612835</v>
       </c>
       <c r="J12">
-        <v>33842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1506,10 +1481,10 @@
         <v>37</v>
       </c>
       <c r="G13" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>50316</v>
@@ -1538,16 +1513,16 @@
         <v>37</v>
       </c>
       <c r="G14" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>1259055</v>
+        <v>1396779</v>
       </c>
       <c r="J14">
-        <v>137724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1570,16 +1545,16 @@
         <v>37</v>
       </c>
       <c r="G15" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I15">
-        <v>159352</v>
+        <v>166500</v>
       </c>
       <c r="J15">
-        <v>7148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1602,16 +1577,16 @@
         <v>37</v>
       </c>
       <c r="G16" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>1730647</v>
+        <v>1806072</v>
       </c>
       <c r="J16">
-        <v>75425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1634,16 +1609,16 @@
         <v>37</v>
       </c>
       <c r="G17" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I17">
-        <v>119442</v>
+        <v>121011</v>
       </c>
       <c r="J17">
-        <v>1569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1666,16 +1641,16 @@
         <v>37</v>
       </c>
       <c r="G18" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I18">
-        <v>81462</v>
+        <v>84914</v>
       </c>
       <c r="J18">
-        <v>3452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1698,16 +1673,16 @@
         <v>37</v>
       </c>
       <c r="G19" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I19">
-        <v>59146</v>
+        <v>65083</v>
       </c>
       <c r="J19">
-        <v>5937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1730,16 +1705,16 @@
         <v>37</v>
       </c>
       <c r="G20" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I20">
-        <v>1730647</v>
+        <v>1806072</v>
       </c>
       <c r="J20">
-        <v>75425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1762,16 +1737,16 @@
         <v>37</v>
       </c>
       <c r="G21" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I21">
-        <v>9468</v>
+        <v>14631</v>
       </c>
       <c r="J21">
-        <v>5163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1794,16 +1769,16 @@
         <v>37</v>
       </c>
       <c r="G22" s="2">
-        <v>44665</v>
+        <v>44735</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="J22">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1827,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2033,23 +2008,12 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21">
         <v>0</v>
       </c>
     </row>
@@ -2060,30 +2024,407 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>77177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>562620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>491084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>350207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>40314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>355173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>46362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>122858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>347649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44734</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>4877</v>
       </c>
     </row>
   </sheetData>
@@ -2093,406 +2434,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3">
-        <v>76158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4">
-        <v>551690</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5">
-        <v>4048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>482859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7">
-        <v>338193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8">
-        <v>39540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>349122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10">
-        <v>43324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19">
-        <v>121674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44728</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21">
-        <v>335635</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44734</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28">
-        <v>4877</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,295 +2474,295 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
         <v>44728</v>
       </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2">
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
         <v>385</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2">
-        <v>341</v>
-      </c>
       <c r="J2">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>77177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2">
         <v>44728</v>
       </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3">
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3">
         <v>76158</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3">
-        <v>71594</v>
-      </c>
       <c r="J3">
-        <v>4564</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>562620</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2">
         <v>44728</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4">
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4">
         <v>551690</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4">
-        <v>512075</v>
-      </c>
       <c r="J4">
-        <v>39615</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>4084</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2">
         <v>44728</v>
       </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5">
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5">
         <v>4048</v>
       </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5">
-        <v>3703</v>
-      </c>
       <c r="J5">
-        <v>345</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>491084</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2">
         <v>44728</v>
       </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6">
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6">
         <v>482859</v>
       </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6">
-        <v>450096</v>
-      </c>
       <c r="J6">
-        <v>32763</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>350207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2">
         <v>44728</v>
       </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7">
         <v>338193</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7">
-        <v>315527</v>
-      </c>
       <c r="J7">
-        <v>22666</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>40314</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2">
         <v>44728</v>
       </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8">
         <v>39540</v>
       </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8">
-        <v>36901</v>
-      </c>
       <c r="J8">
-        <v>2639</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>355173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2">
         <v>44728</v>
       </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9">
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
         <v>349122</v>
       </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9">
-        <v>328213</v>
-      </c>
       <c r="J9">
-        <v>20909</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>46362</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2">
         <v>44728</v>
       </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10">
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
         <v>43324</v>
       </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10">
-        <v>37036</v>
-      </c>
       <c r="J10">
-        <v>6288</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2840,7 +2782,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2860,7 +2802,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2880,7 +2822,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2900,7 +2842,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -2920,7 +2862,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -2940,7 +2882,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2960,7 +2902,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2980,39 +2922,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>122858</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2">
         <v>44728</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19">
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
         <v>121674</v>
       </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19">
-        <v>116296</v>
-      </c>
       <c r="J19">
-        <v>5378</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3032,39 +2974,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2">
+        <v>44748</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21">
+        <v>347649</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2">
         <v>44728</v>
       </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21">
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
         <v>335635</v>
       </c>
-      <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2">
-        <v>44665</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21">
-        <v>312969</v>
-      </c>
       <c r="J21">
-        <v>22666</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3084,7 +3026,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3104,7 +3046,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3124,7 +3066,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3144,7 +3086,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3164,7 +3106,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -3184,34 +3126,54 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
         <v>44734</v>
       </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28">
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
         <v>4877</v>
       </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44517</v>
-      </c>
-      <c r="H28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28">
-        <v>3156</v>
-      </c>
-      <c r="J28">
-        <v>1721</v>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44734</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29">
+        <v>4877</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
@@ -3229,13 +3191,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -3243,464 +3205,464 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>20313</v>
       </c>
       <c r="C2">
-        <v>19203</v>
+        <v>20313</v>
       </c>
       <c r="D2">
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1887</v>
       </c>
       <c r="C3">
-        <v>1702</v>
+        <v>1887</v>
       </c>
       <c r="D3">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>19906</v>
       </c>
       <c r="C4">
-        <v>18944</v>
+        <v>19906</v>
       </c>
       <c r="D4">
-        <v>962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>35298</v>
       </c>
       <c r="C5">
-        <v>33263</v>
+        <v>35298</v>
       </c>
       <c r="D5">
-        <v>2035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>29748</v>
       </c>
       <c r="C6">
-        <v>28342</v>
+        <v>29748</v>
       </c>
       <c r="D6">
-        <v>1406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>31931</v>
       </c>
       <c r="C7">
-        <v>30081</v>
+        <v>31931</v>
       </c>
       <c r="D7">
-        <v>1850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>5809</v>
       </c>
       <c r="C8">
-        <v>5550</v>
+        <v>5809</v>
       </c>
       <c r="D8">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>14319</v>
       </c>
       <c r="C9">
-        <v>13431</v>
+        <v>14319</v>
       </c>
       <c r="D9">
-        <v>888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>8029</v>
       </c>
       <c r="C10">
-        <v>7696</v>
+        <v>8029</v>
       </c>
       <c r="D10">
-        <v>333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>7363</v>
       </c>
       <c r="C11">
-        <v>6882</v>
+        <v>7363</v>
       </c>
       <c r="D11">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>20905</v>
       </c>
       <c r="C12">
-        <v>19869</v>
+        <v>20905</v>
       </c>
       <c r="D12">
-        <v>1036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>28046</v>
       </c>
       <c r="C13">
-        <v>26492</v>
+        <v>28046</v>
       </c>
       <c r="D13">
-        <v>1554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>19240</v>
       </c>
       <c r="C14">
-        <v>18389</v>
+        <v>19240</v>
       </c>
       <c r="D14">
-        <v>851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>1517</v>
       </c>
       <c r="C15">
-        <v>1443</v>
+        <v>1517</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>33633</v>
       </c>
       <c r="C16">
-        <v>31968</v>
+        <v>33633</v>
       </c>
       <c r="D16">
-        <v>1665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B17">
         <v>19462</v>
       </c>
       <c r="C17">
-        <v>18426</v>
+        <v>19462</v>
       </c>
       <c r="D17">
-        <v>1036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>629</v>
       </c>
       <c r="C18">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>2775</v>
       </c>
       <c r="C19">
-        <v>2664</v>
+        <v>2775</v>
       </c>
       <c r="D19">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>7585</v>
       </c>
       <c r="C20">
-        <v>7104</v>
+        <v>7585</v>
       </c>
       <c r="D20">
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>20091</v>
       </c>
       <c r="C21">
-        <v>18944</v>
+        <v>20091</v>
       </c>
       <c r="D21">
-        <v>1147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>4477</v>
       </c>
       <c r="C22">
-        <v>4070</v>
+        <v>4477</v>
       </c>
       <c r="D22">
-        <v>407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B23">
         <v>35520</v>
       </c>
       <c r="C23">
-        <v>33670</v>
+        <v>35520</v>
       </c>
       <c r="D23">
-        <v>1850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B24">
         <v>47138</v>
       </c>
       <c r="C24">
-        <v>44992</v>
+        <v>47138</v>
       </c>
       <c r="D24">
-        <v>2146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>21830</v>
       </c>
       <c r="C25">
-        <v>20757</v>
+        <v>21830</v>
       </c>
       <c r="D25">
-        <v>1073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>703</v>
       </c>
       <c r="C26">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>14578</v>
       </c>
       <c r="C27">
-        <v>13727</v>
+        <v>14578</v>
       </c>
       <c r="D27">
-        <v>851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>12099</v>
       </c>
       <c r="C28">
-        <v>11433</v>
+        <v>12099</v>
       </c>
       <c r="D28">
-        <v>666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>12802</v>
       </c>
       <c r="C29">
-        <v>12617</v>
+        <v>12802</v>
       </c>
       <c r="D29">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B30">
         <v>1591</v>
       </c>
       <c r="C30">
-        <v>1554</v>
+        <v>1591</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>1961</v>
       </c>
       <c r="C31">
-        <v>1850</v>
+        <v>1961</v>
       </c>
       <c r="D31">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>36630</v>
       </c>
       <c r="C32">
-        <v>34743</v>
+        <v>36630</v>
       </c>
       <c r="D32">
-        <v>1887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>9509</v>
       </c>
       <c r="C33">
-        <v>9139</v>
+        <v>9509</v>
       </c>
       <c r="D33">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>12432</v>
       </c>
       <c r="C34">
-        <v>11507</v>
+        <v>12432</v>
       </c>
       <c r="D34">
-        <v>925</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -3724,15 +3686,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -3743,7 +3705,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -3754,7 +3716,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -3765,7 +3727,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3776,7 +3738,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -3787,7 +3749,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -3798,7 +3760,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3809,7 +3771,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3820,7 +3782,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3831,7 +3793,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3842,7 +3804,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3853,7 +3815,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3864,7 +3826,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3875,7 +3837,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3886,7 +3848,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3897,7 +3859,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3908,7 +3870,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3919,7 +3881,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3930,7 +3892,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3941,7 +3903,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3952,7 +3914,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3963,7 +3925,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3974,7 +3936,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3985,7 +3947,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3996,7 +3958,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4007,7 +3969,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4018,7 +3980,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4029,7 +3991,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>

--- a/allTest_PCForgJune.xlsx
+++ b/allTest_PCForgJune.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="108">
   <si>
     <t>tableName</t>
   </si>
@@ -103,37 +103,40 @@
     <t>PROD_CARELINEPI</t>
   </si>
   <si>
+    <t>m-2022-06</t>
+  </si>
+  <si>
+    <t>orgDBName_x</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_x</t>
+  </si>
+  <si>
+    <t>MaxLP_x</t>
+  </si>
+  <si>
+    <t>rwCount_x</t>
+  </si>
+  <si>
+    <t>orgDBName_y</t>
+  </si>
+  <si>
+    <t>MaxLoadTS_y</t>
+  </si>
+  <si>
+    <t>MaxLP_y</t>
+  </si>
+  <si>
+    <t>rwCount_y</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>INT_CARELINEPI_FE</t>
+  </si>
+  <si>
     <t>m-2022-05</t>
-  </si>
-  <si>
-    <t>orgDBName_x</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_x</t>
-  </si>
-  <si>
-    <t>MaxLP_x</t>
-  </si>
-  <si>
-    <t>rwCount_x</t>
-  </si>
-  <si>
-    <t>orgDBName_y</t>
-  </si>
-  <si>
-    <t>MaxLoadTS_y</t>
-  </si>
-  <si>
-    <t>MaxLP_y</t>
-  </si>
-  <si>
-    <t>rwCount_y</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>INT_CARELINEPI_FE</t>
   </si>
   <si>
     <t>rowsEffected</t>
@@ -733,13 +736,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>3143</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -750,13 +753,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>5815</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -767,13 +770,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>17429</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -784,7 +787,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -801,13 +804,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>996435</v>
+        <v>1016403</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -818,13 +821,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>329882</v>
+        <v>335516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -835,13 +838,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>15282</v>
+        <v>15669</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -863,13 +866,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>83250</v>
+        <v>84886</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -880,13 +883,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>73079</v>
+        <v>74475</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -897,13 +900,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>612835</v>
+        <v>617783</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -914,7 +917,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -931,13 +934,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1396779</v>
+        <v>1423156</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -948,13 +951,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>166500</v>
+        <v>169772</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -965,13 +968,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1806072</v>
+        <v>1843449</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -982,13 +985,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>121011</v>
+        <v>124258</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -999,13 +1002,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>84914</v>
+        <v>84982</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1016,13 +1019,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>65083</v>
+        <v>65861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1033,13 +1036,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1806072</v>
+        <v>1843449</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1050,7 +1053,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1067,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1129,13 +1132,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
       </c>
       <c r="E2">
-        <v>3143</v>
+        <v>3162</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -1144,13 +1147,13 @@
         <v>44735</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I2">
         <v>3143</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1161,13 +1164,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>5815</v>
+        <v>5858</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1176,13 +1179,13 @@
         <v>44735</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>5815</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1193,13 +1196,13 @@
         <v>26</v>
       </c>
       <c r="C4" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>17429</v>
+        <v>17577</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1208,13 +1211,13 @@
         <v>44735</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>17429</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1225,7 +1228,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1240,7 +1243,7 @@
         <v>44735</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>1396</v>
@@ -1257,13 +1260,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>996435</v>
+        <v>1016403</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1272,13 +1275,13 @@
         <v>44735</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>996435</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>19968</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1289,13 +1292,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>329882</v>
+        <v>335516</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1304,13 +1307,13 @@
         <v>44735</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>329882</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1321,13 +1324,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>15282</v>
+        <v>15669</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1336,13 +1339,13 @@
         <v>44735</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I8">
         <v>15282</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1373,13 +1376,13 @@
         <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>83250</v>
+        <v>84886</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1388,13 +1391,13 @@
         <v>44735</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>83250</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1405,13 +1408,13 @@
         <v>26</v>
       </c>
       <c r="C11" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>73079</v>
+        <v>74475</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -1420,13 +1423,13 @@
         <v>44735</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I11">
         <v>73079</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1437,13 +1440,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>612835</v>
+        <v>617783</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -1452,13 +1455,13 @@
         <v>44735</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I12">
         <v>612835</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1469,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1484,7 +1487,7 @@
         <v>44735</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I13">
         <v>50316</v>
@@ -1501,13 +1504,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1396779</v>
+        <v>1423156</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -1516,13 +1519,13 @@
         <v>44735</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I14">
         <v>1396779</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>26377</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1533,13 +1536,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>166500</v>
+        <v>169772</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -1548,13 +1551,13 @@
         <v>44735</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I15">
         <v>166500</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1565,13 +1568,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1806072</v>
+        <v>1843449</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -1580,13 +1583,13 @@
         <v>44735</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <v>1806072</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>37377</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1597,13 +1600,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>121011</v>
+        <v>124258</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -1612,13 +1615,13 @@
         <v>44735</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I17">
         <v>121011</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1629,13 +1632,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>84914</v>
+        <v>84982</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -1644,13 +1647,13 @@
         <v>44735</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I18">
         <v>84914</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1661,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>65083</v>
+        <v>65861</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1676,13 +1679,13 @@
         <v>44735</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I19">
         <v>65083</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1693,13 +1696,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1806072</v>
+        <v>1843449</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -1708,13 +1711,13 @@
         <v>44735</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I20">
         <v>1806072</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>37377</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1725,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1740,7 +1743,7 @@
         <v>44735</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>14631</v>
@@ -1757,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="2">
-        <v>44735</v>
+        <v>44748</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1772,7 +1775,7 @@
         <v>44735</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I22">
         <v>41</v>
@@ -1802,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2049,7 +2052,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2058,7 +2061,7 @@
         <v>44748</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>407</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -2075,7 +2078,7 @@
         <v>44748</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>77177</v>
@@ -2083,7 +2086,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2092,7 +2095,7 @@
         <v>44748</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>562620</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2109,7 +2112,7 @@
         <v>44748</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>4084</v>
@@ -2117,7 +2120,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -2126,7 +2129,7 @@
         <v>44748</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>491084</v>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2143,7 +2146,7 @@
         <v>44748</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>350207</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2160,7 +2163,7 @@
         <v>44748</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>40314</v>
@@ -2168,7 +2171,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2177,7 +2180,7 @@
         <v>44748</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>355173</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2194,7 +2197,7 @@
         <v>44748</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>46362</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -2257,7 +2260,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -2268,7 +2271,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2290,7 +2293,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2299,7 +2302,7 @@
         <v>44748</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>122858</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2327,7 +2330,7 @@
         <v>44748</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>347649</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -2390,7 +2393,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2401,7 +2404,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2412,7 +2415,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2421,7 +2424,7 @@
         <v>44734</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>4877</v>
@@ -2474,7 +2477,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -2483,7 +2486,7 @@
         <v>44748</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>407</v>
@@ -2495,7 +2498,7 @@
         <v>44728</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>385</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -2515,7 +2518,7 @@
         <v>44748</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3">
         <v>77177</v>
@@ -2527,7 +2530,7 @@
         <v>44728</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <v>76158</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -2547,7 +2550,7 @@
         <v>44748</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>562620</v>
@@ -2559,7 +2562,7 @@
         <v>44728</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4">
         <v>551690</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -2579,7 +2582,7 @@
         <v>44748</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>4084</v>
@@ -2591,7 +2594,7 @@
         <v>44728</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>4048</v>
@@ -2602,7 +2605,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -2611,7 +2614,7 @@
         <v>44748</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>491084</v>
@@ -2623,7 +2626,7 @@
         <v>44728</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>482859</v>
@@ -2634,7 +2637,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -2643,7 +2646,7 @@
         <v>44748</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>350207</v>
@@ -2655,7 +2658,7 @@
         <v>44728</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7">
         <v>338193</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -2675,7 +2678,7 @@
         <v>44748</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>40314</v>
@@ -2687,7 +2690,7 @@
         <v>44728</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <v>39540</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -2707,7 +2710,7 @@
         <v>44748</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>355173</v>
@@ -2719,7 +2722,7 @@
         <v>44728</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9">
         <v>349122</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2739,7 +2742,7 @@
         <v>44748</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>46362</v>
@@ -2751,7 +2754,7 @@
         <v>44728</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>43324</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2782,7 +2785,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -2882,7 +2885,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2902,7 +2905,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2922,7 +2925,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -2931,7 +2934,7 @@
         <v>44748</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <v>122858</v>
@@ -2943,7 +2946,7 @@
         <v>44728</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I19">
         <v>121674</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -2983,7 +2986,7 @@
         <v>44748</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>347649</v>
@@ -2995,7 +2998,7 @@
         <v>44728</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <v>335635</v>
@@ -3006,7 +3009,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3026,7 +3029,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3106,7 +3109,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -3126,7 +3129,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3146,7 +3149,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -3155,7 +3158,7 @@
         <v>44734</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>4877</v>
@@ -3167,7 +3170,7 @@
         <v>44734</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I29">
         <v>4877</v>
@@ -3191,13 +3194,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -3205,91 +3208,91 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>20313</v>
+        <v>20424</v>
       </c>
       <c r="C2">
         <v>20313</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>1887</v>
+        <v>1961</v>
       </c>
       <c r="C3">
         <v>1887</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>19906</v>
+        <v>20054</v>
       </c>
       <c r="C4">
         <v>19906</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>35298</v>
+        <v>35483</v>
       </c>
       <c r="C5">
         <v>35298</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>29748</v>
+        <v>29896</v>
       </c>
       <c r="C6">
         <v>29748</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>31931</v>
+        <v>32079</v>
       </c>
       <c r="C7">
         <v>31931</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>5809</v>
@@ -3303,35 +3306,35 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9">
-        <v>14319</v>
+        <v>14430</v>
       </c>
       <c r="C9">
         <v>14319</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10">
-        <v>8029</v>
+        <v>8140</v>
       </c>
       <c r="C10">
         <v>8029</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>7363</v>
@@ -3345,49 +3348,49 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12">
-        <v>20905</v>
+        <v>21127</v>
       </c>
       <c r="C12">
         <v>20905</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>28046</v>
+        <v>28305</v>
       </c>
       <c r="C13">
         <v>28046</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14">
-        <v>19240</v>
+        <v>19277</v>
       </c>
       <c r="C14">
         <v>19240</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>1517</v>
@@ -3401,35 +3404,35 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16">
-        <v>33633</v>
+        <v>33670</v>
       </c>
       <c r="C16">
         <v>33633</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17">
-        <v>19462</v>
+        <v>19610</v>
       </c>
       <c r="C17">
         <v>19462</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>629</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>2775</v>
@@ -3457,133 +3460,133 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20">
-        <v>7585</v>
+        <v>7659</v>
       </c>
       <c r="C20">
         <v>7585</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21">
-        <v>20091</v>
+        <v>20313</v>
       </c>
       <c r="C21">
         <v>20091</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22">
-        <v>4477</v>
+        <v>4588</v>
       </c>
       <c r="C22">
         <v>4477</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23">
-        <v>35520</v>
+        <v>35594</v>
       </c>
       <c r="C23">
         <v>35520</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24">
-        <v>47138</v>
+        <v>47175</v>
       </c>
       <c r="C24">
         <v>47138</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25">
-        <v>21830</v>
+        <v>21978</v>
       </c>
       <c r="C25">
         <v>21830</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>703</v>
+        <v>777</v>
       </c>
       <c r="C26">
         <v>703</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>14578</v>
+        <v>14689</v>
       </c>
       <c r="C27">
         <v>14578</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28">
-        <v>12099</v>
+        <v>12136</v>
       </c>
       <c r="C28">
         <v>12099</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29">
         <v>12802</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30">
         <v>1591</v>
@@ -3611,58 +3614,58 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B31">
-        <v>1961</v>
+        <v>2331</v>
       </c>
       <c r="C31">
         <v>1961</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32">
-        <v>36630</v>
+        <v>36889</v>
       </c>
       <c r="C32">
         <v>36630</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33">
-        <v>9509</v>
+        <v>9583</v>
       </c>
       <c r="C33">
         <v>9509</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34">
-        <v>12432</v>
+        <v>12654</v>
       </c>
       <c r="C34">
         <v>12432</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3686,15 +3689,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -3727,7 +3730,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -3749,7 +3752,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3771,7 +3774,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3782,7 +3785,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3804,7 +3807,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3815,7 +3818,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3826,7 +3829,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3837,7 +3840,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3848,7 +3851,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3881,7 +3884,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3892,7 +3895,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3903,7 +3906,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3914,7 +3917,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3925,7 +3928,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -3936,7 +3939,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -3947,7 +3950,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -3958,7 +3961,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -3980,7 +3983,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
